--- a/kerangka pemikiran dan paradigma.xlsx
+++ b/kerangka pemikiran dan paradigma.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UP &amp; SKRIPSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UP &amp; SKRIPSI\skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124B0F03-C2B9-4694-A8A9-526BFF070387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6943BB8D-6B31-4048-9FDE-DBDB0194AC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="20400" windowHeight="10800" xr2:uid="{00E8335D-98B5-4792-AB77-E851834946D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00E8335D-98B5-4792-AB77-E851834946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,12 +72,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1368,15 +1368,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>580159</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>194830</xdr:rowOff>
+      <xdr:colOff>324570</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>580158</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>61480</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1391,8 +1391,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7247659" y="2385580"/>
-          <a:ext cx="1212272" cy="464127"/>
+          <a:off x="7030170" y="5990791"/>
+          <a:ext cx="2475779" cy="1619684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1441,7 +1441,144 @@
             </a:rPr>
             <a:t>(X3)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Kasmir, 2018, hal. 140)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Nurfitriana, 2021, hal. 5)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Mahyudin &amp; Pertiwi, 2023)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Ermaini, 2021, hal. 95)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Zannati, 2017) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -1453,15 +1590,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>585355</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>182707</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>562840</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1476,8 +1613,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7252855" y="1576821"/>
-          <a:ext cx="1189758" cy="631247"/>
+          <a:off x="7019925" y="3851420"/>
+          <a:ext cx="2524125" cy="1692130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1526,8 +1663,105 @@
             </a:rPr>
             <a:t>(X2)</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>- (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Kasmir, 2015, hal. 115)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>- (Andriani &amp; Supriono, 2022)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>- (Herry, 2015, hal. 550)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>- (Mustaqim, 2019)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>- (Adib &amp; Ghofar, 2021, hal. 24)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
@@ -1537,16 +1771,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1734</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>127290</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>306532</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>554182</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161059</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1561,8 +1795,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7275370" y="724767"/>
-          <a:ext cx="1158585" cy="631247"/>
+          <a:off x="7012132" y="1800515"/>
+          <a:ext cx="2531918" cy="1866610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1611,7 +1845,199 @@
             </a:rPr>
             <a:t>(X1)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(Syamsyudin, 2015, hal. 254)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(Sawi &amp; Wujarso, 2019)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(Hery, 2015, hal. 548)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>- (Wahyuni, Supartoyo, Esti, Taman, Sianturi, Hidayati, Rokhimah, Silalahi, Pandapotan, 2023, hal. 202)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>- (Pernamawati, 2018, hal. 176)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -1622,35 +2048,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>554182</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>44596</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>595747</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>41132</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1037" name="Straight Arrow Connector 1036">
+        <xdr:cNvPr id="1047" name="Straight Arrow Connector 1046">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC044D6-6346-048A-E9E0-3418A9316E5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F2D7232-022F-4781-B6A0-ECD425B09FF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="1035" idx="3"/>
-          <a:endCxn id="1053" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8433955" y="1040391"/>
-          <a:ext cx="1253837" cy="793173"/>
+          <a:off x="9553575" y="4305300"/>
+          <a:ext cx="3581400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1678,128 +2101,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>562840</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>41132</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333810</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>595747</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1047" name="Straight Arrow Connector 1046">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F2D7232-022F-4781-B6A0-ECD425B09FF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="1034" idx="3"/>
-          <a:endCxn id="1053" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8442613" y="1833564"/>
-          <a:ext cx="1245179" cy="58881"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>580158</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>41132</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>595747</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1050" name="Straight Arrow Connector 1049">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF4CAA3-14AA-4504-A354-041984E788B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="1033" idx="3"/>
-          <a:endCxn id="1053" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8459931" y="1833564"/>
-          <a:ext cx="1227861" cy="784080"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>595747</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>542059</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>157596</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1814,8 +2125,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9687792" y="1517940"/>
-          <a:ext cx="1158585" cy="631247"/>
+          <a:off x="13135410" y="3767139"/>
+          <a:ext cx="2580840" cy="1643061"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1864,10 +2175,119 @@
             </a:rPr>
             <a:t>(Y)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1200">
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(P. Sirait, 2017, hal. 142)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>- (Sujarweni, 2017, hal. 65) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>- (Zannati, 2017)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(Herry, 2015, hal. 517)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>- (Setiawan, 2022)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2345,6 +2765,560 @@
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28719</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4652ECF-5B2B-4AC9-889D-3F06C88266BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13439919" y="542925"/>
+          <a:ext cx="2685906" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333519</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Rectangle 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42C49B39-8638-400C-9C28-2E3B6F045E65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10087119" y="4819650"/>
+          <a:ext cx="2685906" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Connector 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357E8620-80A2-F521-C5EE-8AE4CB0505F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9544050" y="2762250"/>
+          <a:ext cx="4867275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>395505</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157164</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Straight Arrow Connector 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC56A92-A679-4823-9E5D-289F598DFCBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14411325" y="2762250"/>
+          <a:ext cx="4980" cy="995364"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Straight Connector 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA58C355-2C62-4256-9C6F-CC9485599171}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9505950" y="6867525"/>
+          <a:ext cx="4943475" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Straight Arrow Connector 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD1DB35-C3BD-49D3-84FD-188B1E759D70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14449425" y="5448300"/>
+          <a:ext cx="0" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28719</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="Rectangle 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{045FFCC3-2DBC-4A1F-B7ED-10890E248711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13439919" y="7086600"/>
+          <a:ext cx="2685906" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457272</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="Straight Connector 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EE415A3-2164-EE4E-9F51-EFE42BF1A4A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="66" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11420475" y="4305300"/>
+          <a:ext cx="9597" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28719</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="Straight Connector 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9562AC51-F2B3-4DD5-9E05-395F3596B60B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11277600" y="1509713"/>
+          <a:ext cx="2162319" cy="1233487"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28719</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="Straight Connector 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7304C7-8035-44F4-A1B8-92BF5CA2A0AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11296650" y="6877050"/>
+          <a:ext cx="2143269" cy="1176338"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2666,8 +3640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2FD42B-3DCB-4304-8BB6-C2747852CEBB}">
   <dimension ref="B1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="J13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC49" sqref="AC49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2710,13 +3684,13 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
@@ -2729,13 +3703,13 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
@@ -2748,13 +3722,13 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
@@ -2767,13 +3741,13 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
@@ -2786,13 +3760,13 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
@@ -2805,13 +3779,13 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
@@ -2824,13 +3798,13 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
@@ -2843,13 +3817,13 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
@@ -2862,13 +3836,13 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
@@ -2881,13 +3855,13 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
@@ -2900,13 +3874,13 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
@@ -2919,13 +3893,13 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
@@ -2938,13 +3912,13 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
@@ -3259,8 +4233,7 @@
       <c r="K41" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="L3:R15"/>
+  <mergeCells count="1">
     <mergeCell ref="B1:K41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
